--- a/Stuff For Class/Practice Problems/Probability/Normal Distribution Practice.xlsx
+++ b/Stuff For Class/Practice Problems/Probability/Normal Distribution Practice.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Non-Python Stats Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Stuff For Class/Practice Problems/Probability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24018C69-0A06-8A45-8B57-A62D3C98B164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E076D43-2E7D-7340-A10A-881D82C35D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" activeTab="1" xr2:uid="{3AF4D33A-86E0-5545-853D-D2D66FE90918}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{3AF4D33A-86E0-5545-853D-D2D66FE90918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
     <sheet name="S&amp;P" sheetId="4" r:id="rId2"/>
     <sheet name="Heights" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sales!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sales!$B$2:$B$117</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sales!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sales!$C$2:$C$117</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sales!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sales!$C$2:$C$117</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sales!$C$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sales!$C$2:$C$117</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sales!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sales!$B$2:$B$117</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sales!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sales!$C$2:$C$117</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sales!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sales!$B$2:$B$117</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sales!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sales!$B$2:$B$117</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -198,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,7 +256,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -344,7 +362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,18 +504,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{AA2F0E8B-00D4-164D-9AB5-3736402BF213}">
+  <we:reference id="wa104379190" version="2.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104379190" version="2.0.0.0" store="wa104379190" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings>
+    <we:binding id="RangeSelect" type="matrix" appref="{610B349E-347C-2C4A-82DC-7979A85EC1BE}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD58F324-A30B-ED49-9721-3C72EFFECDD2}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="259" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1941,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6039F585-1BA7-AD46-B18E-4FB453F186C7}">
   <dimension ref="A1:D1212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11663,15 +11703,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{610B349E-347C-2C4A-82DC-7979A85EC1BE}">
+          <xm:f>'S&amp;P'!1:1048576</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200D0508-FFCD-7F42-AA0A-EF58DAA29F93}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11731,58 +11780,58 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Stuff For Class/Practice Problems/Probability/Normal Distribution Practice.xlsx
+++ b/Stuff For Class/Practice Problems/Probability/Normal Distribution Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Stuff For Class/Practice Problems/Probability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E076D43-2E7D-7340-A10A-881D82C35D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCCBF7B-6A5C-9E4E-AC94-06F6DE8F3F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{3AF4D33A-86E0-5545-853D-D2D66FE90918}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17040" activeTab="2" xr2:uid="{3AF4D33A-86E0-5545-853D-D2D66FE90918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
@@ -18,22 +18,19 @@
     <sheet name="Heights" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sales!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sales!$B$2:$B$117</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sales!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sales!$C$2:$C$117</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sales!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sales!$C$2:$C$117</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sales!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sales!$C$2:$C$117</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sales!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sales!$B$2:$B$117</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sales!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sales!$C$2:$C$117</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sales!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sales!$B$2:$B$117</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sales!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sales!$B$2:$B$117</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sales!$L$2:$L$107</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sales!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'S&amp;P'!$B$2:$B$1212</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'S&amp;P'!$B$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'S&amp;P'!$B$2:$B$1212</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sales!$B$2:$B$117</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sales!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sales!$C$2:$C$117</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sales!$M$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sales!$M$2:$M$117</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sales!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sales!$B$2:$B$117</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'S&amp;P'!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -121,15 +118,6 @@
     <t>Y / N</t>
   </si>
   <si>
-    <t>A) p(sales &lt; 50)</t>
-  </si>
-  <si>
-    <t>B) p(sales &gt; 75)</t>
-  </si>
-  <si>
-    <t>C) p(40 &lt; sales &lt; 60)</t>
-  </si>
-  <si>
     <t>2) Using the series that is normally distributed, calcluate the following probabilites:</t>
   </si>
   <si>
@@ -152,6 +140,15 @@
   </si>
   <si>
     <t>Find the probability of a day's change falling below -3% or above 3%</t>
+  </si>
+  <si>
+    <t>C) p(100 &lt; sales &lt; 200)</t>
+  </si>
+  <si>
+    <t>A) p(sales &lt; 150)</t>
+  </si>
+  <si>
+    <t>B) p(sales &gt; 175)</t>
   </si>
 </sst>
 </file>
@@ -536,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD58F324-A30B-ED49-9721-3C72EFFECDD2}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView zoomScale="259" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A2" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +631,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,7 +646,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -664,7 +661,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -679,7 +676,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1981,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6039F585-1BA7-AD46-B18E-4FB453F186C7}">
   <dimension ref="A1:D1212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1212"/>
+    <sheetView zoomScale="273" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1992,10 +1989,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2022,7 +2019,7 @@
         <v>-0.63166999999999995</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2041,7 +2038,7 @@
         <v>0.62592999999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,7 +2049,7 @@
         <v>2.1208900000000002</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2063,7 +2060,7 @@
         <v>-0.25090000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,7 +2071,7 @@
         <v>-0.91990000000000005</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -11720,7 +11717,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Stuff For Class/Practice Problems/Probability/Normal Distribution Practice.xlsx
+++ b/Stuff For Class/Practice Problems/Probability/Normal Distribution Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Stuff For Class/Practice Problems/Probability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCCBF7B-6A5C-9E4E-AC94-06F6DE8F3F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F75AA6-58E2-1340-A868-C887280DF9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17040" activeTab="2" xr2:uid="{3AF4D33A-86E0-5545-853D-D2D66FE90918}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17040" activeTab="1" xr2:uid="{3AF4D33A-86E0-5545-853D-D2D66FE90918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
@@ -18,19 +18,14 @@
     <sheet name="Heights" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sales!$L$2:$L$107</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sales!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'S&amp;P'!$B$2:$B$1212</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'S&amp;P'!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'S&amp;P'!$B$2:$B$1212</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sales!$B$2:$B$117</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sales!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sales!$C$2:$C$117</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sales!$M$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sales!$M$2:$M$117</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sales!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sales!$B$2:$B$117</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'S&amp;P'!$B$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sales!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sales!$B$2:$B$117</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sales!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sales!$C$2:$C$117</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'S&amp;P'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'S&amp;P'!$B$2:$B$1212</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'S&amp;P'!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'S&amp;P'!$B$2:$B$1212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -210,6 +205,1343 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{8C072D9B-86A2-7A42-95C8-F3D59C9E064C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Vehicles Sold</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C3BBE23B-741C-0343-9890-19C0945EAAD3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Vehicles Sold 2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>824286</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>631764</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166314</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C13B50B-52E3-EDFB-DC65-9906EFA3E291}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3679764" y="1063241"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>494248</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182492</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0604AB-43C5-B257-EDAC-9F3B0A27370C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6842630" y="1888337"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD58F324-A30B-ED49-9721-3C72EFFECDD2}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E16"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,23 +3303,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6039F585-1BA7-AD46-B18E-4FB453F186C7}">
-  <dimension ref="A1:D1212"/>
+  <dimension ref="A1:E1212"/>
   <sheetViews>
-    <sheetView zoomScale="273" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="273" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1995,7 +3331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43404</v>
       </c>
@@ -2003,7 +3339,7 @@
         <v>1.0851299999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43405</v>
       </c>
@@ -2011,18 +3347,18 @@
         <v>1.0557799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43406</v>
       </c>
       <c r="B4">
         <v>-0.63166999999999995</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43409</v>
       </c>
@@ -2030,51 +3366,51 @@
         <v>0.56003000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43410</v>
       </c>
       <c r="B6">
         <v>0.62592999999999999</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43411</v>
       </c>
       <c r="B7">
         <v>2.1208900000000002</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43412</v>
       </c>
       <c r="B8">
         <v>-0.25090000000000001</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43413</v>
       </c>
       <c r="B9">
         <v>-0.91990000000000005</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43416</v>
       </c>
@@ -2082,7 +3418,7 @@
         <v>-1.9701500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43417</v>
       </c>
@@ -2090,7 +3426,7 @@
         <v>-0.14818999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43418</v>
       </c>
@@ -2098,7 +3434,7 @@
         <v>-0.75675000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43419</v>
       </c>
@@ -2106,7 +3442,7 @@
         <v>1.05938</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43420</v>
       </c>
@@ -2114,7 +3450,7 @@
         <v>0.22233</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43423</v>
       </c>
@@ -2122,7 +3458,7 @@
         <v>-1.66431</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43424</v>
       </c>
@@ -11716,7 +13052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200D0508-FFCD-7F42-AA0A-EF58DAA29F93}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+    <sheetView zoomScale="164" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
